--- a/biology/Zoologie/Ablepharus_kitaibelii/Ablepharus_kitaibelii.xlsx
+++ b/biology/Zoologie/Ablepharus_kitaibelii/Ablepharus_kitaibelii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ablepharus kitaibelii, aussi appelé Abléphare de Kitaibel, Abléphare sans paupières, Scinque sans paupières ou Scinque abléphare, est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ablepharus kitaibelii, aussi appelé Abléphare de Kitaibel, Abléphare sans paupières, Scinque sans paupières ou Scinque abléphare, est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Slovaquie, en Hongrie, en Roumanie, en Croatie, en Serbie, au Kosovo, en Macédoine, en Albanie, en Grèce, en Bulgarie et dans l'ouest de la Turquie[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Slovaquie, en Hongrie, en Roumanie, en Croatie, en Serbie, au Kosovo, en Macédoine, en Albanie, en Grèce, en Bulgarie et dans l'ouest de la Turquie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 juin 2012)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 juin 2012) :
 Ablepharus kitaibelii fabichi Štěpánek, 1938
 Ablepharus kitaibelii fitzingeri Mertens, 1952
 Ablepharus kitaibelii kitaibelii (Bibron &amp; Bory de Saint-Vincent, 1833)
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un lézard qui atteint environ 15 cm. Il vit caché sous des roches ou des feuilles, dans des milieux plutôt secs. Il est fin, avec de petites pattes, de couleur bronze avec des bandes sombres latérales.
 </t>
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette espèce, kitaibelii, est dédié au botaniste hongrois Pál Kitaibel[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette espèce, kitaibelii, est dédié au botaniste hongrois Pál Kitaibel.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bibron &amp; Bory de Saint-Vincent, 1833 : Expédition scientifique de Morée, Zoologie Reptiles et poissons. Polypiers. Paris, Strasbourg, F.G. Levrault.
 Fuhn, 1970 : Über die Unterarten von Ablepharus kitaibelii. Acta Societatis Zoologicae Bohemicae, vol. 34, p. 9-17.
